--- a/P_vs_T_results.xlsx
+++ b/P_vs_T_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nate_schwindt/Projects/eyring_model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B727DC05-18B2-D246-909B-E88DC0AF66B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDB23BA-2D30-A849-9405-626006581123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="17420" windowHeight="21900" xr2:uid="{F8B1EA0F-A308-4B23-AF40-5EC820F734E9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="7">
   <si>
     <t>T (K)</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>B (m/sec)</t>
+  </si>
+  <si>
+    <t>ave B (m/sec)</t>
   </si>
 </sst>
 </file>
@@ -156,13 +159,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,11 +493,12 @@
   <dimension ref="A1:AS67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+      <selection activeCell="D44" sqref="D44:D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" customWidth="1"/>
     <col min="15" max="15" width="13.1640625" customWidth="1"/>
@@ -517,6 +521,9 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2">
@@ -528,6 +535,10 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
+      <c r="D2">
+        <f>AVERAGE(B2,B8,B14)</f>
+        <v>2.1480346994554405E-5</v>
+      </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -539,6 +550,10 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
+      <c r="D3">
+        <f>AVERAGE(B3,B9,B15)</f>
+        <v>2.5604753245916383E-5</v>
+      </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -550,6 +565,10 @@
       <c r="C4" t="s">
         <v>1</v>
       </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D55" si="0">AVERAGE(B4,B10,B16)</f>
+        <v>2.9421918155453795E-5</v>
+      </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -560,6 +579,10 @@
       </c>
       <c r="C5" t="s">
         <v>1</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>3.3983109393682904E-5</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -590,6 +613,10 @@
       <c r="C6" t="s">
         <v>1</v>
       </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>3.8257119245092766E-5</v>
+      </c>
       <c r="W6" s="8"/>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.2">
@@ -601,6 +628,10 @@
       </c>
       <c r="C7" t="s">
         <v>1</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>4.3086885862082806E-5</v>
       </c>
       <c r="R7" s="4"/>
       <c r="T7" s="4"/>
@@ -727,12 +758,12 @@
       <c r="AE15" s="5"/>
       <c r="AF15" s="9"/>
       <c r="AG15" s="5"/>
-      <c r="AN15" s="12"/>
-      <c r="AO15" s="12"/>
-      <c r="AP15" s="13"/>
-      <c r="AQ15" s="13"/>
-      <c r="AR15" s="12"/>
-      <c r="AS15" s="12"/>
+      <c r="AN15" s="13"/>
+      <c r="AO15" s="13"/>
+      <c r="AP15" s="14"/>
+      <c r="AQ15" s="14"/>
+      <c r="AR15" s="13"/>
+      <c r="AS15" s="13"/>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -787,6 +818,10 @@
       </c>
       <c r="C20" t="s">
         <v>2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1.0039884606980105E-5</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -818,6 +853,10 @@
       <c r="C21" t="s">
         <v>2</v>
       </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1.2126033402422545E-5</v>
+      </c>
       <c r="W21" s="8"/>
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.2">
@@ -830,6 +869,10 @@
       <c r="C22" t="s">
         <v>2</v>
       </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>1.4294667713161648E-5</v>
+      </c>
       <c r="R22" s="4"/>
       <c r="T22" s="4"/>
       <c r="V22" s="4"/>
@@ -844,6 +887,10 @@
       <c r="C23" t="s">
         <v>2</v>
       </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1.6582457181873137E-5</v>
+      </c>
       <c r="R23" s="4"/>
       <c r="T23" s="4"/>
       <c r="V23" s="4"/>
@@ -858,6 +905,10 @@
       <c r="C24" t="s">
         <v>2</v>
       </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>1.9043586720050759E-5</v>
+      </c>
       <c r="R24" s="4"/>
       <c r="T24" s="4"/>
       <c r="V24" s="4"/>
@@ -871,6 +922,10 @@
       </c>
       <c r="C25" t="s">
         <v>2</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>2.2426483117942158E-5</v>
       </c>
       <c r="R25" s="4"/>
       <c r="T25" s="4"/>
@@ -948,12 +1003,12 @@
       <c r="AE30" s="5"/>
       <c r="AF30" s="9"/>
       <c r="AG30" s="5"/>
-      <c r="AN30" s="12"/>
-      <c r="AO30" s="12"/>
-      <c r="AP30" s="13"/>
-      <c r="AQ30" s="13"/>
-      <c r="AR30" s="12"/>
-      <c r="AS30" s="12"/>
+      <c r="AN30" s="13"/>
+      <c r="AO30" s="13"/>
+      <c r="AP30" s="14"/>
+      <c r="AQ30" s="14"/>
+      <c r="AR30" s="13"/>
+      <c r="AS30" s="13"/>
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A31">
@@ -1085,11 +1140,15 @@
       <c r="A38">
         <v>284.7</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="12">
         <v>2.2666999999999998E-6</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>3.3325926181357415E-6</v>
       </c>
       <c r="I38" s="4"/>
       <c r="L38" s="4"/>
@@ -1100,11 +1159,15 @@
       <c r="A39">
         <v>290</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="12">
         <v>2.8245199999999999E-6</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>4.0455100594606638E-6</v>
       </c>
       <c r="I39" s="4"/>
       <c r="L39" s="4"/>
@@ -1115,11 +1178,15 @@
       <c r="A40">
         <v>295.8</v>
       </c>
-      <c r="B40" s="14">
+      <c r="B40" s="12">
         <v>3.7446900000000001E-6</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>5.1825923536012713E-6</v>
       </c>
       <c r="I40" s="4"/>
       <c r="L40" s="4"/>
@@ -1132,11 +1199,15 @@
       <c r="A41">
         <v>301.7</v>
       </c>
-      <c r="B41" s="14">
+      <c r="B41" s="12">
         <v>4.3755200000000004E-6</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>6.0339553156590187E-6</v>
       </c>
       <c r="J41" s="8"/>
       <c r="T41" s="8"/>
@@ -1145,22 +1216,30 @@
       <c r="A42">
         <v>308.35000000000002</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="12">
         <v>5.3009700000000002E-6</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>6.9130251286712408E-6</v>
       </c>
     </row>
     <row r="43" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>313.45</v>
       </c>
-      <c r="B43" s="14">
+      <c r="B43" s="12">
         <v>6.0754100000000002E-6</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>7.2893870913019731E-6</v>
       </c>
       <c r="W43" s="5"/>
       <c r="X43" s="9"/>
@@ -1171,12 +1250,12 @@
       <c r="AC43" s="5"/>
       <c r="AD43" s="9"/>
       <c r="AE43" s="5"/>
-      <c r="AN43" s="12"/>
-      <c r="AO43" s="12"/>
-      <c r="AP43" s="13"/>
-      <c r="AQ43" s="13"/>
-      <c r="AR43" s="12"/>
-      <c r="AS43" s="12"/>
+      <c r="AN43" s="13"/>
+      <c r="AO43" s="13"/>
+      <c r="AP43" s="14"/>
+      <c r="AQ43" s="14"/>
+      <c r="AR43" s="13"/>
+      <c r="AS43" s="13"/>
     </row>
     <row r="44" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A44">
@@ -1248,7 +1327,7 @@
       <c r="A50">
         <v>284.7</v>
       </c>
-      <c r="B50" s="14">
+      <c r="B50" s="12">
         <v>4.8799999999999999E-6</v>
       </c>
       <c r="C50" t="s">
@@ -1259,7 +1338,7 @@
       <c r="A51">
         <v>290</v>
       </c>
-      <c r="B51" s="14">
+      <c r="B51" s="12">
         <v>5.9800000000000003E-6</v>
       </c>
       <c r="C51" t="s">
@@ -1270,7 +1349,7 @@
       <c r="A52">
         <v>295.8</v>
       </c>
-      <c r="B52" s="14">
+      <c r="B52" s="12">
         <v>7.5800000000000003E-6</v>
       </c>
       <c r="C52" t="s">
@@ -1281,7 +1360,7 @@
       <c r="A53">
         <v>301.7</v>
       </c>
-      <c r="B53" s="14">
+      <c r="B53" s="12">
         <v>8.7499999999999992E-6</v>
       </c>
       <c r="C53" t="s">
@@ -1292,7 +1371,7 @@
       <c r="A54">
         <v>308.35000000000002</v>
       </c>
-      <c r="B54" s="14">
+      <c r="B54" s="12">
         <v>9.8200000000000008E-6</v>
       </c>
       <c r="C54" t="s">
@@ -1303,7 +1382,7 @@
       <c r="A55">
         <v>313.45</v>
       </c>
-      <c r="B55" s="14">
+      <c r="B55" s="12">
         <v>1.01E-5</v>
       </c>
       <c r="C55" t="s">

--- a/P_vs_T_results.xlsx
+++ b/P_vs_T_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nate_schwindt/Projects/eyring_model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDB23BA-2D30-A849-9405-626006581123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165CA174-FD14-2244-AF08-D07303A63046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="17420" windowHeight="21900" xr2:uid="{F8B1EA0F-A308-4B23-AF40-5EC820F734E9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="8">
   <si>
     <t>T (K)</t>
   </si>
@@ -50,13 +50,16 @@
     <t>system</t>
   </si>
   <si>
-    <t>RO</t>
-  </si>
-  <si>
     <t>B (m/sec)</t>
   </si>
   <si>
     <t>ave B (m/sec)</t>
+  </si>
+  <si>
+    <t>SD B</t>
+  </si>
+  <si>
+    <t>NaCl (RO)</t>
   </si>
 </sst>
 </file>
@@ -136,7 +139,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -166,6 +169,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,13 +497,13 @@
   <dimension ref="A1:AS67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44:D55"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" customWidth="1"/>
     <col min="15" max="15" width="13.1640625" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
@@ -516,12 +520,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -539,6 +546,9 @@
         <f>AVERAGE(B2,B8,B14)</f>
         <v>2.1480346994554405E-5</v>
       </c>
+      <c r="E2">
+        <v>2.6506431316395149E-6</v>
+      </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -554,6 +564,9 @@
         <f>AVERAGE(B3,B9,B15)</f>
         <v>2.5604753245916383E-5</v>
       </c>
+      <c r="E3">
+        <v>3.6069867377902847E-6</v>
+      </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -566,8 +579,11 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D55" si="0">AVERAGE(B4,B10,B16)</f>
+        <f t="shared" ref="D4:D43" si="0">AVERAGE(B4,B10,B16)</f>
         <v>2.9421918155453795E-5</v>
+      </c>
+      <c r="E4">
+        <v>4.6412709019341369E-6</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.2">
@@ -583,6 +599,9 @@
       <c r="D5">
         <f t="shared" si="0"/>
         <v>3.3983109393682904E-5</v>
+      </c>
+      <c r="E5">
+        <v>6.0935628878176749E-6</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -617,6 +636,9 @@
         <f t="shared" si="0"/>
         <v>3.8257119245092766E-5</v>
       </c>
+      <c r="E6">
+        <v>7.0873815039633971E-6</v>
+      </c>
       <c r="W6" s="8"/>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.2">
@@ -632,6 +654,9 @@
       <c r="D7">
         <f t="shared" si="0"/>
         <v>4.3086885862082806E-5</v>
+      </c>
+      <c r="E7">
+        <v>8.8189043073726378E-6</v>
       </c>
       <c r="R7" s="4"/>
       <c r="T7" s="4"/>
@@ -823,7 +848,9 @@
         <f t="shared" si="0"/>
         <v>1.0039884606980105E-5</v>
       </c>
-      <c r="F20" s="8"/>
+      <c r="E20">
+        <v>2.4292466085877422E-6</v>
+      </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -857,6 +884,9 @@
         <f t="shared" si="0"/>
         <v>1.2126033402422545E-5</v>
       </c>
+      <c r="E21">
+        <v>2.9770016975658372E-6</v>
+      </c>
       <c r="W21" s="8"/>
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.2">
@@ -873,6 +903,9 @@
         <f t="shared" si="0"/>
         <v>1.4294667713161648E-5</v>
       </c>
+      <c r="E22">
+        <v>3.5509096065319664E-6</v>
+      </c>
       <c r="R22" s="4"/>
       <c r="T22" s="4"/>
       <c r="V22" s="4"/>
@@ -891,6 +924,9 @@
         <f t="shared" si="0"/>
         <v>1.6582457181873137E-5</v>
       </c>
+      <c r="E23">
+        <v>4.0458268229271754E-6</v>
+      </c>
       <c r="R23" s="4"/>
       <c r="T23" s="4"/>
       <c r="V23" s="4"/>
@@ -909,6 +945,9 @@
         <f t="shared" si="0"/>
         <v>1.9043586720050759E-5</v>
       </c>
+      <c r="E24">
+        <v>4.5134419056306615E-6</v>
+      </c>
       <c r="R24" s="4"/>
       <c r="T24" s="4"/>
       <c r="V24" s="4"/>
@@ -926,6 +965,9 @@
       <c r="D25">
         <f t="shared" si="0"/>
         <v>2.2426483117942158E-5</v>
+      </c>
+      <c r="E25">
+        <v>4.8655121035632344E-6</v>
       </c>
       <c r="R25" s="4"/>
       <c r="T25" s="4"/>
@@ -1042,7 +1084,6 @@
       <c r="C33" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -1084,7 +1125,6 @@
       <c r="C34" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="Q34" s="8"/>
       <c r="T34" s="8"/>
@@ -1144,11 +1184,14 @@
         <v>2.2666999999999998E-6</v>
       </c>
       <c r="C38" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
         <v>3.3325926181357415E-6</v>
+      </c>
+      <c r="E38">
+        <v>1.1210370168197114E-6</v>
       </c>
       <c r="I38" s="4"/>
       <c r="L38" s="4"/>
@@ -1163,11 +1206,14 @@
         <v>2.8245199999999999E-6</v>
       </c>
       <c r="C39" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
         <v>4.0455100594606638E-6</v>
+      </c>
+      <c r="E39">
+        <v>1.3848574617714122E-6</v>
       </c>
       <c r="I39" s="4"/>
       <c r="L39" s="4"/>
@@ -1182,11 +1228,14 @@
         <v>3.7446900000000001E-6</v>
       </c>
       <c r="C40" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
         <v>5.1825923536012713E-6</v>
+      </c>
+      <c r="E40">
+        <v>1.7070546237984943E-6</v>
       </c>
       <c r="I40" s="4"/>
       <c r="L40" s="4"/>
@@ -1203,12 +1252,15 @@
         <v>4.3755200000000004E-6</v>
       </c>
       <c r="C41" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
         <v>6.0339553156590187E-6</v>
       </c>
+      <c r="E41">
+        <v>1.9364280434918297E-6</v>
+      </c>
       <c r="J41" s="8"/>
       <c r="T41" s="8"/>
     </row>
@@ -1220,12 +1272,15 @@
         <v>5.3009700000000002E-6</v>
       </c>
       <c r="C42" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
         <v>6.9130251286712408E-6</v>
       </c>
+      <c r="E42">
+        <v>2.0574244664897871E-6</v>
+      </c>
     </row>
     <row r="43" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A43">
@@ -1235,11 +1290,14 @@
         <v>6.0754100000000002E-6</v>
       </c>
       <c r="C43" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
         <v>7.2893870913019731E-6</v>
+      </c>
+      <c r="E43">
+        <v>1.9835039140089779E-6</v>
       </c>
       <c r="W43" s="5"/>
       <c r="X43" s="9"/>
@@ -1265,7 +1323,7 @@
         <v>2.8510778544072243E-6</v>
       </c>
       <c r="C44" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:45" x14ac:dyDescent="0.2">
@@ -1276,7 +1334,7 @@
         <v>3.3320101783819906E-6</v>
       </c>
       <c r="C45" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:45" x14ac:dyDescent="0.2">
@@ -1287,7 +1345,7 @@
         <v>4.2230870608038134E-6</v>
       </c>
       <c r="C46" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:45" x14ac:dyDescent="0.2">
@@ -1298,7 +1356,7 @@
         <v>4.9763459469770547E-6</v>
       </c>
       <c r="C47" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:45" x14ac:dyDescent="0.2">
@@ -1309,7 +1367,7 @@
         <v>5.6181053860137189E-6</v>
       </c>
       <c r="C48" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -1320,7 +1378,7 @@
         <v>5.6927512739059184E-6</v>
       </c>
       <c r="C49" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -1331,7 +1389,7 @@
         <v>4.8799999999999999E-6</v>
       </c>
       <c r="C50" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -1342,7 +1400,7 @@
         <v>5.9800000000000003E-6</v>
       </c>
       <c r="C51" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -1353,7 +1411,7 @@
         <v>7.5800000000000003E-6</v>
       </c>
       <c r="C52" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -1364,7 +1422,7 @@
         <v>8.7499999999999992E-6</v>
       </c>
       <c r="C53" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -1375,7 +1433,7 @@
         <v>9.8200000000000008E-6</v>
       </c>
       <c r="C54" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -1386,7 +1444,7 @@
         <v>1.01E-5</v>
       </c>
       <c r="C55" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
